--- a/Assets/Scripts/DataTables/Tables/DT_Text.xlsx
+++ b/Assets/Scripts/DataTables/Tables/DT_Text.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\lavender\Assets\Scripts\DataTables\Tables\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2E5172-F232-434D-AD27-AB8B951BFFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,67 +22,67 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="487">
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>ui</t>
-  </si>
-  <si>
-    <t>nextText</t>
-  </si>
-  <si>
-    <t>choise0</t>
-  </si>
-  <si>
-    <t>choise1</t>
-  </si>
-  <si>
-    <t>choise2</t>
-  </si>
-  <si>
-    <t>choise3</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>TXT_Stretcher_001</t>
-  </si>
-  <si>
-    <t>上に乗ればランプを調べられそうだな</t>
-  </si>
-  <si>
-    <t>TXT_System_001</t>
-  </si>
-  <si>
-    <t>TXT_System_002</t>
-  </si>
-  <si>
-    <t>TXT_Stretcher_003</t>
-  </si>
-  <si>
-    <t>ストレッチャーだ</t>
-  </si>
-  <si>
-    <t>のぼる</t>
-  </si>
-  <si>
-    <t>stretcherUp</t>
-  </si>
-  <si>
-    <t>のぼらない</t>
-  </si>
-  <si>
-    <t>TXT_Dynamo</t>
-  </si>
-  <si>
-    <t>電気はつけておこう</t>
-  </si>
-  <si>
-    <t>TXT_Memo_001_content_010</t>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nextText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choise0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choise1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choise2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choise3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Stretcher_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上に乗ればランプを調べられそうだな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_System_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_System_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Stretcher_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ストレッチャーだ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">のぼる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stretcherUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">のぼらない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Dynamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">電気はつけておこう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Memo_001_content_010</t>
   </si>
   <si>
     <r>
@@ -112,135 +107,135 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>だが安心はしていい
+      <t xml:space="preserve">だが安心はしていい
 無事な奴まで見殺しにはしない</t>
     </r>
   </si>
   <si>
-    <t>TXT_Memo_001_content_015</t>
-  </si>
-  <si>
-    <t>常備していた『抵抗薬』は処分したが
+    <t xml:space="preserve">TXT_Memo_001_content_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">常備していた『抵抗薬』は処分したが
 ここで作ることはできる
 あんたの頭がまだ狂ってなければ
 という条件付きだがな</t>
   </si>
   <si>
-    <t>TXT_Memo_001_content_020</t>
-  </si>
-  <si>
-    <t>まずは『溶液Aの作成方法』が
+    <t xml:space="preserve">TXT_Memo_001_content_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まずは『溶液Aの作成方法』が
 書かれたメモを探せ
 それすらできなきゃ終わりだ</t>
   </si>
   <si>
-    <t>TXT_Memo_002_content_010</t>
+    <t xml:space="preserve">TXT_Memo_002_content_010</t>
   </si>
   <si>
     <t xml:space="preserve">
 『溶液Aの作成方法』</t>
   </si>
   <si>
-    <t>TXT_Memo_002_content_015</t>
-  </si>
-  <si>
-    <t>『溶液Aの作成方法』はここに記す
+    <t xml:space="preserve">TXT_Memo_002_content_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">『溶液Aの作成方法』はここに記す
 助かりたければ急いで作業しろよ
 『抵抗薬』を作るには二つの溶液を
 合成する必要がある
 溶液Aはその一つ目だ</t>
   </si>
   <si>
-    <t>TXT_Memo_002_content_020</t>
-  </si>
-  <si>
-    <t>まずは『試験管セット』を
+    <t xml:space="preserve">TXT_Memo_002_content_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まずは『試験管セット』を
 『遠心分離機』にかけるんだ
 詳細は『カセットテープ』に録音した
 次はそいつを探すんだ</t>
   </si>
   <si>
-    <t>TXT_Memo_002_reaction_010</t>
-  </si>
-  <si>
-    <t>『溶液Aの作成方法』って書いてある
+    <t xml:space="preserve">TXT_Memo_002_reaction_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">『溶液Aの作成方法』って書いてある
 実験手順のメモかな</t>
   </si>
   <si>
-    <t>TXT_Memo_003_content_010</t>
+    <t xml:space="preserve">TXT_Memo_003_content_010</t>
   </si>
   <si>
     <t xml:space="preserve">
 『溶液Bの作成方法』</t>
   </si>
   <si>
-    <t>TXT_Memo_003_content_015</t>
-  </si>
-  <si>
-    <t>『溶液Bの作成方法』はここに記す
+    <t xml:space="preserve">TXT_Memo_003_content_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">『溶液Bの作成方法』はここに記す
 次は『卓上遠心分離機』が必要だ
 名前の通り、卓上で使う
 小型の遠心分離機を探せ</t>
   </si>
   <si>
-    <t>TXT_Memo_003_content_020</t>
-  </si>
-  <si>
-    <t>詳細は『カセットテープ』だ
+    <t xml:space="preserve">TXT_Memo_003_content_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">詳細は『カセットテープ』だ
 もしテープが見つからないようなら
 一度頭を冷やすといい
 救急箱に保冷シートが
 入っていたはずだ</t>
   </si>
   <si>
-    <t>TXT_Memo_003_reaction_010</t>
-  </si>
-  <si>
-    <t>『溶液Bの作成方法』って書いてある
+    <t xml:space="preserve">TXT_Memo_003_reaction_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">『溶液Bの作成方法』って書いてある
 実験手順のメモかな</t>
   </si>
   <si>
-    <t>TXT_Memo_003_reaction_020</t>
-  </si>
-  <si>
-    <t>『溶液Bの作成方法』って書いてある</t>
-  </si>
-  <si>
-    <t>TXT_Memo_003_reaction_025</t>
-  </si>
-  <si>
-    <t>これも作るんだろうけど
+    <t xml:space="preserve">TXT_Memo_003_reaction_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">『溶液Bの作成方法』って書いてある</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Memo_003_reaction_025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">これも作るんだろうけど
 今は溶液Aを作ろう！</t>
   </si>
   <si>
-    <t>TXT_Memo_004_content_010</t>
+    <t xml:space="preserve">TXT_Memo_004_content_010</t>
   </si>
   <si>
     <t xml:space="preserve">
 『抵抗薬の作成方法』</t>
   </si>
   <si>
-    <t>TXT_Memo_004_content_015</t>
-  </si>
-  <si>
-    <t>『抵抗薬の作成方法』はここに記す
+    <t xml:space="preserve">TXT_Memo_004_content_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">『抵抗薬の作成方法』はここに記す
 溶液Aと溶液Bを適切な量で混ぜれば
 『抵抗薬』の完成だ
 例によって詳細は
 同じ名前のカセットテープだ</t>
   </si>
   <si>
-    <t>TXT_Memo_004_content_020</t>
-  </si>
-  <si>
-    <t>...まったく、家族が恋しいよ
+    <t xml:space="preserve">TXT_Memo_004_content_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...まったく、家族が恋しいよ
 教授もいつも娘さんの
 写真を眺めていたな
 ...なぜ、こんなことに
 なってしまったんだろうな</t>
   </si>
   <si>
-    <t>TXT_Memo_004_reaction_010</t>
+    <t xml:space="preserve">TXT_Memo_004_reaction_010</t>
   </si>
   <si>
     <r>
@@ -262,12 +257,12 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>実験手順がかかれているけど
+      <t xml:space="preserve">実験手順がかかれているけど
 今読んでもよく分からないや</t>
     </r>
   </si>
   <si>
-    <t>TXT_Memo_004_reaction_020</t>
+    <t xml:space="preserve">TXT_Memo_004_reaction_020</t>
   </si>
   <si>
     <r>
@@ -289,24 +284,24 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>これは後で読もう</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_Memo_005_content_010</t>
-  </si>
-  <si>
-    <t>『脱出方法』はここに記す
+      <t xml:space="preserve">これは後で読もう</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Memo_005_content_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">『脱出方法』はここに記す
 抵抗薬は作り終えたか？
 後は逃げるだけだが
 ドアは電子制御されているから
 通電時にロックされるはずだ</t>
   </si>
   <si>
-    <t>TXT_Memo_005_content_020</t>
-  </si>
-  <si>
-    <t>一度部屋の電気を落とせ
+    <t xml:space="preserve">TXT_Memo_005_content_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一度部屋の電気を落とせ
 狭い研究室だ、暗くとも問題ない
 私は別の研究室にも
 同じ仕込みをしに行く
@@ -315,7 +310,7 @@
 あんたは無事に逃げ切れよ</t>
   </si>
   <si>
-    <t>TXT_Memo_005_reaction_010</t>
+    <t xml:space="preserve">TXT_Memo_005_reaction_010</t>
   </si>
   <si>
     <r>
@@ -337,18 +332,18 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>でも、まだ逃げられない...！</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_Memo_005_reaction_020</t>
-  </si>
-  <si>
-    <t>『脱出方法』のメモ...
+      <t xml:space="preserve">でも、まだ逃げられない...！</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Memo_005_reaction_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">『脱出方法』のメモ...
 抵抗薬を作ってからじゃなきゃ...！</t>
   </si>
   <si>
-    <t>TXT_CassetteTape_002_reaction_010</t>
+    <t xml:space="preserve">TXT_CassetteTape_002_reaction_010</t>
   </si>
   <si>
     <r>
@@ -370,11 +365,11 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>お父さんがよく使ってたな</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_CassetteTape_002_reaction_020</t>
+      <t xml:space="preserve">お父さんがよく使ってたな</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CassetteTape_002_reaction_020</t>
   </si>
   <si>
     <r>
@@ -396,17 +391,17 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>これだ！</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_CassetteTape_002_reaction_030</t>
-  </si>
-  <si>
-    <t>今はこのテープには用はないかな</t>
-  </si>
-  <si>
-    <t>TXT_RescueBox_reaction_010</t>
+      <t xml:space="preserve">これだ！</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CassetteTape_002_reaction_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今はこのテープには用はないかな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_RescueBox_reaction_010</t>
   </si>
   <si>
     <r>
@@ -428,11 +423,11 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>うちにあるやつより大きいな</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_RescueBox_reaction_020</t>
+      <t xml:space="preserve">うちにあるやつより大きいな</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_RescueBox_reaction_020</t>
   </si>
   <si>
     <r>
@@ -454,11 +449,11 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>これだ！</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_PictureFrame_reaction_010</t>
+      <t xml:space="preserve">これだ！</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_PictureFrame_reaction_010</t>
   </si>
   <si>
     <r>
@@ -469,7 +464,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>写真立て...</t>
+      <t xml:space="preserve">写真立て...</t>
     </r>
     <r>
       <rPr>
@@ -479,12 +474,12 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>私とお父さんが映っている
+      <t xml:space="preserve">私とお父さんが映っている
 まだ家に帰って来てた頃のお父さん...</t>
     </r>
   </si>
   <si>
-    <t>TXT_PictureFrame_reaction_020</t>
+    <t xml:space="preserve">TXT_PictureFrame_reaction_020</t>
   </si>
   <si>
     <r>
@@ -507,18 +502,18 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>字を間違えてる？　大丈夫かな...</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_PictureFrame_reaction_030</t>
-  </si>
-  <si>
-    <t>お父さん...
+      <t xml:space="preserve">字を間違えてる？　大丈夫かな...</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_PictureFrame_reaction_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お父さん...
 私が助けるから...！</t>
   </si>
   <si>
-    <t>TXT_GarbageCan_reaction_010</t>
+    <t xml:space="preserve">TXT_GarbageCan_reaction_010</t>
   </si>
   <si>
     <r>
@@ -529,7 +524,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>ゴミ箱には</t>
+      <t xml:space="preserve">ゴミ箱には</t>
     </r>
     <r>
       <rPr>
@@ -539,12 +534,12 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>紙に、カセットテープに...
+      <t xml:space="preserve">紙に、カセットテープに...
 細い管？　みたいなやつがいっぱい...</t>
     </r>
   </si>
   <si>
-    <t>TXT_GarbageCan_reaction_020</t>
+    <t xml:space="preserve">TXT_GarbageCan_reaction_020</t>
   </si>
   <si>
     <r>
@@ -566,57 +561,57 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>『抵抗薬の作成方法』って名前だ！
+      <t xml:space="preserve">『抵抗薬の作成方法』って名前だ！
 あのテープも抵抗薬も偽物だ！</t>
     </r>
   </si>
   <si>
-    <t>TXT_GarbageCan_reaction_025</t>
-  </si>
-  <si>
-    <t>机の抵抗薬は無視しなきゃ！</t>
-  </si>
-  <si>
-    <t>TXT_GarbageCan_reaction_030</t>
-  </si>
-  <si>
-    <t>この溶液A、やっぱり間違えてるかも...
+    <t xml:space="preserve">TXT_GarbageCan_reaction_025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">机の抵抗薬は無視しなきゃ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_GarbageCan_reaction_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この溶液A、やっぱり間違えてるかも...
 うん、捨ててやり直そう...！</t>
   </si>
   <si>
-    <t>TXT_GarbageCan_reaction_050</t>
-  </si>
-  <si>
-    <t>この抵抗薬、やっぱり間違えてるかも...
+    <t xml:space="preserve">TXT_GarbageCan_reaction_050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この抵抗薬、やっぱり間違えてるかも...
 うん、捨ててやり直そう...！</t>
   </si>
   <si>
-    <t>TXT_CasettePlayer_stop_010</t>
-  </si>
-  <si>
-    <t>一度止めよう</t>
-  </si>
-  <si>
-    <t>TXT_CasettePlayer_Tape002_001</t>
+    <t xml:space="preserve">TXT_CasettePlayer_stop_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一度止めよう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape002_001</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>TXT_CasettePlayer_Tape002_010</t>
-  </si>
-  <si>
-    <t>保身で悪いが
+    <t xml:space="preserve">TXT_CasettePlayer_Tape002_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保身で悪いが
 声は加工させてもらう</t>
   </si>
   <si>
-    <t>TXT_CasettePlayer_Tape002_012</t>
-  </si>
-  <si>
-    <t>さて、溶液Aの作成方法についてだ</t>
-  </si>
-  <si>
-    <t>TXT_CasettePlayer_Tape002_014</t>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape002_012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さて、溶液Aの作成方法についてだ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape002_014</t>
   </si>
   <si>
     <r>
@@ -638,11 +633,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>こいつは極低温で保存している</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_CasettePlayer_Tape002_016</t>
+      <t xml:space="preserve">こいつは極低温で保存している</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape002_016</t>
   </si>
   <si>
     <r>
@@ -664,90 +659,90 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>何かに困ったら段ボールを探ってみろ</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_CasettePlayer_Tape002_018</t>
-  </si>
-  <si>
-    <t>次に、遠心分離機だが
+      <t xml:space="preserve">何かに困ったら段ボールを探ってみろ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape002_018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次に、遠心分離機だが
 こいつを使うにはローターが必要だ</t>
   </si>
   <si>
-    <t>TXT_CasettePlayer_Tape002_022</t>
-  </si>
-  <si>
-    <t>細い穴が幾つか開いた
+    <t xml:space="preserve">TXT_CasettePlayer_Tape002_022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">細い穴が幾つか開いた
 丸い金属部品を探せ</t>
   </si>
   <si>
-    <t>TXT_CasettePlayer_Tape002_024</t>
-  </si>
-  <si>
-    <t>遠心分離は重さのバランスが
+    <t xml:space="preserve">TXT_CasettePlayer_Tape002_024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遠心分離は重さのバランスが
 悪いとうまくいかなくてな</t>
   </si>
   <si>
-    <t>TXT_CasettePlayer_Tape002_026</t>
-  </si>
-  <si>
-    <t>試験管セットは三本で一組だ
+    <t xml:space="preserve">TXT_CasettePlayer_Tape002_026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">試験管セットは三本で一組だ
 ローターの種類に気をつけろよ</t>
   </si>
   <si>
-    <t>TXT_CasettePlayer_Tape002_028</t>
-  </si>
-  <si>
-    <t>40000(ｇ)で10(秒)機械にかければ
+    <t xml:space="preserve">TXT_CasettePlayer_Tape002_028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40000(ｇ)で10(秒)機械にかければ
 分離は完了する</t>
   </si>
   <si>
-    <t>TXT_CasettePlayer_Tape002_030</t>
-  </si>
-  <si>
-    <t>上手くいけば透明な「溶液A」が
+    <t xml:space="preserve">TXT_CasettePlayer_Tape002_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上手くいけば透明な「溶液A」が
 出来上がるはずだ</t>
   </si>
   <si>
-    <t>TXT_CasettePlayer_Tape002_032</t>
-  </si>
-  <si>
-    <t>もし考えても分らない事があれば
+    <t xml:space="preserve">TXT_CasettePlayer_Tape002_032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もし考えても分らない事があれば
 ホワイトボードを見に行け</t>
   </si>
   <si>
-    <t>TXT_CasettePlayer_Tape002_034</t>
-  </si>
-  <si>
-    <t>その後は「溶液Bの作成方法」の
+    <t xml:space="preserve">TXT_CasettePlayer_Tape002_034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">その後は「溶液Bの作成方法」の
 メモを探せ、金属棚にある</t>
   </si>
   <si>
-    <t>TXT_CasettePlayer_Tape003_001</t>
-  </si>
-  <si>
-    <t>TXT_CasettePlayer_Tape003_010</t>
-  </si>
-  <si>
-    <t>良く見つけたな
+    <t xml:space="preserve">TXT_CasettePlayer_Tape003_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape003_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">良く見つけたな
 溶液Bの作成は簡単だ</t>
   </si>
   <si>
-    <t>TXT_CasettePlayer_Tape003_012</t>
-  </si>
-  <si>
-    <t>溶液Aで使ったものと同じ
+    <t xml:space="preserve">TXT_CasettePlayer_Tape003_012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">溶液Aで使ったものと同じ
 『試験管セット』を</t>
   </si>
   <si>
-    <t>TXT_CasettePlayer_Tape003_014</t>
-  </si>
-  <si>
-    <t>『卓上遠心分離機』にかけるんだ</t>
-  </si>
-  <si>
-    <t>TXT_CasettePlayer_Tape003_016</t>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape003_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">『卓上遠心分離機』にかけるんだ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape003_016</t>
   </si>
   <si>
     <r>
@@ -769,79 +764,79 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>重さのバランスも気にしなくていい</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_CasettePlayer_Tape003_018</t>
-  </si>
-  <si>
-    <t>機械にかけるのは数秒で十分だろう</t>
-  </si>
-  <si>
-    <t>TXT_CasettePlayer_Tape003_020</t>
-  </si>
-  <si>
-    <t>問題がなければ固液分離が上手くいった
+      <t xml:space="preserve">重さのバランスも気にしなくていい</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape003_018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">機械にかけるのは数秒で十分だろう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape003_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">問題がなければ固液分離が上手くいった
 『溶液B』が出来上がる</t>
   </si>
   <si>
-    <t>TXT_CasettePlayer_Tape003_022</t>
-  </si>
-  <si>
-    <t>溶液AとBを混ぜれば抵抗薬は完成だ
+    <t xml:space="preserve">TXT_CasettePlayer_Tape003_022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">溶液AとBを混ぜれば抵抗薬は完成だ
 次のメモは試薬棚の中だ　よく探せ</t>
   </si>
   <si>
-    <t>TXT_CasettePlayer_Tape004_001</t>
-  </si>
-  <si>
-    <t>TXT_CasettePlayer_Tape004_010</t>
-  </si>
-  <si>
-    <t>よくここまで辿り着いた</t>
-  </si>
-  <si>
-    <t>TXT_CasettePlayer_Tape004_012</t>
-  </si>
-  <si>
-    <t>実は抵抗薬は完成品がある</t>
-  </si>
-  <si>
-    <t>TXT_CasettePlayer_Tape004_014</t>
-  </si>
-  <si>
-    <t>作業台の上のガラス瓶がそれだ</t>
-  </si>
-  <si>
-    <t>TXT_CasettePlayer_Tape004_016</t>
-  </si>
-  <si>
-    <t>それをもって早く外へ出ろ</t>
-  </si>
-  <si>
-    <t>TXT_CasettePlayer_Tape004_018</t>
-  </si>
-  <si>
-    <t>ドアは電子ロック式だ</t>
-  </si>
-  <si>
-    <t>TXT_CasettePlayer_Tape004_020</t>
-  </si>
-  <si>
-    <t>電気を落とせば部屋から出られる</t>
-  </si>
-  <si>
-    <t>TXT_CasettePlayer_Tape004_022</t>
-  </si>
-  <si>
-    <t>俺は、先に行っている</t>
-  </si>
-  <si>
-    <t>TXT_CasettePlayer_Tape005_001</t>
-  </si>
-  <si>
-    <t>TXT_CasettePlayer_Tape005_010</t>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape004_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape004_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よくここまで辿り着いた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape004_012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">実は抵抗薬は完成品がある</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape004_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作業台の上のガラス瓶がそれだ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape004_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">それをもって早く外へ出ろ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape004_018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドアは電子ロック式だ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape004_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">電気を落とせば部屋から出られる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape004_022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">俺は、先に行っている</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape005_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape005_010</t>
   </si>
   <si>
     <r>
@@ -863,11 +858,11 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>試験管が三本ずつあるな</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_CasettePlayer_Tape005_012</t>
+      <t xml:space="preserve">試験管が三本ずつあるな</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape005_012</t>
   </si>
   <si>
     <r>
@@ -878,7 +873,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>溶液Aは</t>
+      <t xml:space="preserve">溶液Aは</t>
     </r>
     <r>
       <rPr>
@@ -888,7 +883,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>5(ml)、</t>
+      <t xml:space="preserve">5(ml)、</t>
     </r>
     <r>
       <rPr>
@@ -909,38 +904,38 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>冷蔵庫の中の試薬瓶に入れろ</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_CasettePlayer_Tape005_013</t>
-  </si>
-  <si>
-    <t>各溶液は十分な量があるはずだ</t>
-  </si>
-  <si>
-    <t>TXT_CasettePlayer_Tape005_014</t>
-  </si>
-  <si>
-    <t>正確な分量はモニターの前にある
+      <t xml:space="preserve">冷蔵庫の中の試薬瓶に入れろ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape005_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">各溶液は十分な量があるはずだ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape005_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正確な分量はモニターの前にある
 ピペットで量りとれ</t>
   </si>
   <si>
-    <t>TXT_CasettePlayer_Tape005_016</t>
-  </si>
-  <si>
-    <t>瓶の試薬が全て溶ければ
+    <t xml:space="preserve">TXT_CasettePlayer_Tape005_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瓶の試薬が全て溶ければ
 抵抗薬の完成だ</t>
   </si>
   <si>
-    <t>TXT_CasettePlayer_Tape005_018</t>
-  </si>
-  <si>
-    <t>上手くいっていれば
+    <t xml:space="preserve">TXT_CasettePlayer_Tape005_018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上手くいっていれば
 透明な紫色の溶液になる</t>
   </si>
   <si>
-    <t>TXT_CasettePlayer_Tape005_020</t>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape005_020</t>
   </si>
   <si>
     <r>
@@ -962,18 +957,18 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>逃げ方のメモも用意した</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_CasettePlayer_Tape005_024</t>
-  </si>
-  <si>
-    <t>あんたが入ってきた
+      <t xml:space="preserve">逃げ方のメモも用意した</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape005_024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あんたが入ってきた
 ドアを調べてみろ</t>
   </si>
   <si>
-    <t>TXT_CasettePlayer_reaction_010</t>
+    <t xml:space="preserve">TXT_CasettePlayer_reaction_010</t>
   </si>
   <si>
     <r>
@@ -995,11 +990,11 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>お父さんのと同じやつだ</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_Freezer_reaction_010</t>
+      <t xml:space="preserve">お父さんのと同じやつだ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Freezer_reaction_010</t>
   </si>
   <si>
     <r>
@@ -1021,11 +1016,11 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>蓋は...鍵がかかってるな</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_Freezer_reaction_020</t>
+      <t xml:space="preserve">蓋は...鍵がかかってるな</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Freezer_reaction_020</t>
   </si>
   <si>
     <r>
@@ -1047,24 +1042,24 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>あ、でも鍵が掛かってる...</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_Freezer_reaction_030</t>
-  </si>
-  <si>
-    <t>小分済みの試験管セットで一杯だ
+      <t xml:space="preserve">あ、でも鍵が掛かってる...</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Freezer_reaction_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小分済みの試験管セットで一杯だ
 ...どれでも大丈夫だよね</t>
   </si>
   <si>
-    <t>TXT_Freezer_reaction_040</t>
-  </si>
-  <si>
-    <t>試験管セットはもう持ってる</t>
-  </si>
-  <si>
-    <t>TXT_Freezer_reaction_050</t>
+    <t xml:space="preserve">TXT_Freezer_reaction_040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">試験管セットはもう持ってる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Freezer_reaction_050</t>
   </si>
   <si>
     <r>
@@ -1086,46 +1081,46 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>うん、もう一度やり直してみよう</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_Freezer_reaction_060</t>
-  </si>
-  <si>
-    <t>作った溶液は大丈夫かな</t>
-  </si>
-  <si>
-    <t>TXT_Freezer_reaction_070</t>
-  </si>
-  <si>
-    <t>うん、もう一度頑張ろう！</t>
-  </si>
-  <si>
-    <t>TXT_Freezer_reaction_080</t>
-  </si>
-  <si>
-    <t>試験管セットをもう一度だよね</t>
-  </si>
-  <si>
-    <t>TXT_Freezer_reaction_090</t>
-  </si>
-  <si>
-    <t>TXT_Freezer_reaction_100</t>
-  </si>
-  <si>
-    <t>作った溶液A、少し濁ってるけど
+      <t xml:space="preserve">うん、もう一度やり直してみよう</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Freezer_reaction_060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作った溶液は大丈夫かな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Freezer_reaction_070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うん、もう一度頑張ろう！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Freezer_reaction_080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">試験管セットをもう一度だよね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Freezer_reaction_090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Freezer_reaction_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作った溶液A、少し濁ってるけど
 大丈夫かな...</t>
   </si>
   <si>
-    <t>TXT_Freezer_reaction_110</t>
-  </si>
-  <si>
-    <t>試験管セットは
+    <t xml:space="preserve">TXT_Freezer_reaction_110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">試験管セットは
 遠心分離機にいれたよね</t>
   </si>
   <si>
-    <t>TXT_Freezer_reaction_120</t>
+    <t xml:space="preserve">TXT_Freezer_reaction_120</t>
   </si>
   <si>
     <r>
@@ -1147,38 +1142,38 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>うん、もう一度やり直してみよう</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_Freezer_reaction_130</t>
-  </si>
-  <si>
-    <t>抵抗薬、これでいいんだよね...？</t>
-  </si>
-  <si>
-    <t>TXT_DimpleKey_reaction_010</t>
-  </si>
-  <si>
-    <t>ファイル、試薬瓶、薬さじにバール...
+      <t xml:space="preserve">うん、もう一度やり直してみよう</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Freezer_reaction_130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">抵抗薬、これでいいんだよね...？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_DimpleKey_reaction_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファイル、試薬瓶、薬さじにバール...
 あ、鍵なんかも入ってる...</t>
   </si>
   <si>
-    <t>TXT_DimpleKey_reaction_020</t>
-  </si>
-  <si>
-    <t>この鍵...
+    <t xml:space="preserve">TXT_DimpleKey_reaction_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この鍵...
 テープの通りなら、必要なものだよね</t>
   </si>
   <si>
-    <t>TXT_DimpleKey_reaction_030</t>
-  </si>
-  <si>
-    <t>ファイル、試薬瓶、薬さじにバール...
+    <t xml:space="preserve">TXT_DimpleKey_reaction_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファイル、試薬瓶、薬さじにバール...
 ぐちゃぐちゃだ</t>
   </si>
   <si>
-    <t>TXT_Centrifuge_reaction_010</t>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_010</t>
   </si>
   <si>
     <r>
@@ -1200,11 +1195,11 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>『遠心分離機』って書いてある</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_010_add</t>
+      <t xml:space="preserve">『遠心分離機』って書いてある</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_010_add</t>
   </si>
   <si>
     <r>
@@ -1215,7 +1210,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>機械に『遠心分離機』って</t>
+      <t xml:space="preserve">機械に『遠心分離機』って</t>
     </r>
     <r>
       <rPr>
@@ -1225,30 +1220,30 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>書いてある</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_020</t>
-  </si>
-  <si>
-    <t>機械に『遠心分離機』って書いてある
+      <t xml:space="preserve">書いてある</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">機械に『遠心分離機』って書いてある
 ローターって言う部品も探さないと</t>
   </si>
   <si>
-    <t>TXT_Centrifuge_reaction_030</t>
-  </si>
-  <si>
-    <t>まずはローターをセットしないと</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_040</t>
-  </si>
-  <si>
-    <t>ローターをセットして...と</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_050</t>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まずはローターをセットしないと</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローターをセットして...と</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_050</t>
   </si>
   <si>
     <r>
@@ -1270,11 +1265,11 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>取り換えよう</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_060</t>
+      <t xml:space="preserve">取り換えよう</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_060</t>
   </si>
   <si>
     <r>
@@ -1296,179 +1291,179 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>次は細かな設定だ、しっかり考えよう</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_070_RotorNG</t>
-  </si>
-  <si>
-    <t>えーっと
+      <t xml:space="preserve">次は細かな設定だ、しっかり考えよう</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_070_RotorNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">えーっと
 『回転速度』の設定...？</t>
   </si>
   <si>
-    <t>TXT_Centrifuge_reaction_070_RotorNG_B</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_070_RotorNG_C</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_070_RotorNG_A</t>
-  </si>
-  <si>
-    <t>2000(rpm)</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorNG_A</t>
-  </si>
-  <si>
-    <t>4000(rpm)</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorNG_B</t>
-  </si>
-  <si>
-    <t>6000(rpm)</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorNG_C</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_070_RotorNG_D</t>
-  </si>
-  <si>
-    <t>分からない...</t>
-  </si>
-  <si>
-    <t>次は
+    <t xml:space="preserve">TXT_Centrifuge_reaction_070_RotorNG_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_070_RotorNG_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_070_RotorNG_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000(rpm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorNG_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000(rpm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorNG_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6000(rpm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorNG_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_070_RotorNG_D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分からない...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次は
 『時間』の設定...</t>
   </si>
   <si>
-    <t>TXT_Centrifuge_reaction_075_RotorNG_A_A</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorNG_A_B</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorNG_A_C</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorNG_B_A</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorNG_B_B</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorNG_B_C</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorNG_C_A</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorNG_C_B</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorNG_C_C</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorNG_D</t>
-  </si>
-  <si>
-    <t>5秒</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_078_failed_010</t>
-  </si>
-  <si>
-    <t>Flag_BlueCloudySolution_Obtained</t>
-  </si>
-  <si>
-    <t>10秒</t>
-  </si>
-  <si>
-    <t>15秒</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_070_RotorOK</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_070_RotorOK_B</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_070_RotorOK_C</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_070_RotorOK_A</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorOK_A</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorOK_B</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorOK_C</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_070_RotorOK_D</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorOK_A_A</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorOK_A_B</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorOK_A_C</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorOK_B_A</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorOK_B_B</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorOK_B_C</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorOK_C_A</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorOK_C_B</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorOK_C_C</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_075_RotorOK_D</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_078_allcorrect</t>
-  </si>
-  <si>
-    <t>Flag_BlueSolution_Obtained</t>
-  </si>
-  <si>
-    <t>よし、出来た！</t>
-  </si>
-  <si>
-    <t>できたけど...ちょっと濁ってるかも</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_080</t>
-  </si>
-  <si>
-    <t>重さのバランスは...
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorNG_A_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorNG_A_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorNG_A_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorNG_B_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorNG_B_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorNG_B_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorNG_C_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorNG_C_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorNG_C_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorNG_D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_078_failed_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag_BlueCloudySolution_Obtained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_070_RotorOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_070_RotorOK_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_070_RotorOK_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_070_RotorOK_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorOK_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorOK_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorOK_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_070_RotorOK_D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorOK_A_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorOK_A_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorOK_A_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorOK_B_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorOK_B_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorOK_B_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorOK_C_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorOK_C_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorOK_C_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorOK_D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_078_allcorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag_BlueSolution_Obtained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よし、出来た！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">できたけど...ちょっと濁ってるかも</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重さのバランスは...
 これで大丈夫かな</t>
   </si>
   <si>
-    <t>TXT_Centrifuge_reaction_090</t>
-  </si>
-  <si>
-    <t>今は使う必要は無いかな</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_100</t>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今は使う必要は無いかな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_100</t>
   </si>
   <si>
     <r>
@@ -1479,7 +1474,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>うまくできたの...？　</t>
+      <t xml:space="preserve">うまくできたの...？　</t>
     </r>
     <r>
       <rPr>
@@ -1489,39 +1484,39 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>ちょっと不安...</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_110</t>
-  </si>
-  <si>
-    <t>ローターの種類と設定条件...
+      <t xml:space="preserve">ちょっと不安...</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローターの種類と設定条件...
 自信が持てたら操作を開始しよう！</t>
   </si>
   <si>
-    <t>TXT_Centrifuge_reaction_120</t>
-  </si>
-  <si>
-    <t>新しい試験管セットをとってこなきゃ</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_130</t>
-  </si>
-  <si>
-    <t>一度ローターも取り外して再開だ！</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_reaction_140</t>
-  </si>
-  <si>
-    <t>TXT_Rotor_4h_reaction_010</t>
-  </si>
-  <si>
-    <t>何かの機械の部品...？</t>
-  </si>
-  <si>
-    <t>TXT_Rotor_4h_reaction_020</t>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新しい試験管セットをとってこなきゃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一度ローターも取り外して再開だ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Rotor_4h_reaction_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何かの機械の部品...？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Rotor_4h_reaction_020</t>
   </si>
   <si>
     <r>
@@ -1543,32 +1538,32 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>これが『ローター』かな？</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_Rotor_4h_reaction_030</t>
-  </si>
-  <si>
-    <t>このローターはもういらないな</t>
-  </si>
-  <si>
-    <t>TXT_Rotor_4h_reaction_040</t>
-  </si>
-  <si>
-    <t>溶液Aは作れたし、もう不要かな</t>
-  </si>
-  <si>
-    <t>TXT_Rotor_4h_reaction_050</t>
-  </si>
-  <si>
-    <t>抵抗薬は作れたし、もう不要かな</t>
-  </si>
-  <si>
-    <t>TXT_Rotor_6h_reaction_010</t>
-  </si>
-  <si>
-    <t>TXT_Rotor_6h_reaction_020</t>
+      <t xml:space="preserve">これが『ローター』かな？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Rotor_4h_reaction_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">このローターはもういらないな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Rotor_4h_reaction_040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">溶液Aは作れたし、もう不要かな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Rotor_4h_reaction_050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">抵抗薬は作れたし、もう不要かな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Rotor_6h_reaction_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Rotor_6h_reaction_020</t>
   </si>
   <si>
     <r>
@@ -1590,26 +1585,26 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>これが『ローター』かな？</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_Rotor_6h_reaction_030</t>
-  </si>
-  <si>
-    <t>TXT_Rotor_6h_reaction_040</t>
-  </si>
-  <si>
-    <t>溶液Aは作れたし、今は不要かな</t>
-  </si>
-  <si>
-    <t>TXT_Rotor_6h_reaction_050</t>
-  </si>
-  <si>
-    <t>TXT_Rotor_8h_reaction_010</t>
-  </si>
-  <si>
-    <t>TXT_Rotor_8h_reaction_020</t>
+      <t xml:space="preserve">これが『ローター』かな？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Rotor_6h_reaction_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Rotor_6h_reaction_040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">溶液Aは作れたし、今は不要かな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Rotor_6h_reaction_050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Rotor_8h_reaction_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Rotor_8h_reaction_020</t>
   </si>
   <si>
     <r>
@@ -1631,40 +1626,40 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>これが『ローター』かな？</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_Rotor_8h_reaction_030</t>
-  </si>
-  <si>
-    <t>TXT_Rotor_8h_reaction_040</t>
-  </si>
-  <si>
-    <t>TXT_Rotor_8h_reaction_050</t>
-  </si>
-  <si>
-    <t>TXT_SmallCentrifuge_reaction_010</t>
-  </si>
-  <si>
-    <t>何に使う機械だろう...</t>
-  </si>
-  <si>
-    <t>TXT_SmallCentrifuge_reaction_020</t>
-  </si>
-  <si>
-    <t>細い穴が開いてて回転する機械...
+      <t xml:space="preserve">これが『ローター』かな？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Rotor_8h_reaction_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Rotor_8h_reaction_040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Rotor_8h_reaction_050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_SmallCentrifuge_reaction_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何に使う機械だろう...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_SmallCentrifuge_reaction_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">細い穴が開いてて回転する機械...
 きっと卓上遠心分離機ってこの機械だ</t>
   </si>
   <si>
-    <t>TXT_SmallCentrifuge_reaction_030</t>
-  </si>
-  <si>
-    <t>これが卓上遠心分離機だよね
+    <t xml:space="preserve">TXT_SmallCentrifuge_reaction_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">これが卓上遠心分離機だよね
 試験管をセットするだけで...出来た！</t>
   </si>
   <si>
-    <t>TXT_SmallCentrifuge_reaction_040</t>
+    <t xml:space="preserve">TXT_SmallCentrifuge_reaction_040</t>
   </si>
   <si>
     <r>
@@ -1686,69 +1681,69 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>今は用はないかな</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_SmallCentrifuge_reaction_050</t>
-  </si>
-  <si>
-    <t>この手順は間違いようがないね</t>
-  </si>
-  <si>
-    <t>TXT_SmallCentrifuge_reaction_060</t>
-  </si>
-  <si>
-    <t>溶液Aの作り直しに集中しよう</t>
-  </si>
-  <si>
-    <t>TXT_SmallCentrifuge_reaction_070</t>
-  </si>
-  <si>
-    <t>試験管セットを使うんだよね</t>
-  </si>
-  <si>
-    <t>TXT_SmallCentrifuge_reaction_080</t>
-  </si>
-  <si>
-    <t>溶液Bのカセットテープを探そう</t>
-  </si>
-  <si>
-    <t>TXT_SmallCentrifuge_reaction_090</t>
-  </si>
-  <si>
-    <t>次は溶液Bの作成かな</t>
-  </si>
-  <si>
-    <t>TXT_SmallCentrifuge_reaction_100</t>
-  </si>
-  <si>
-    <t>この機械に試験管セットを
+      <t xml:space="preserve">今は用はないかな</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_SmallCentrifuge_reaction_050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この手順は間違いようがないね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_SmallCentrifuge_reaction_060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">溶液Aの作り直しに集中しよう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_SmallCentrifuge_reaction_070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">試験管セットを使うんだよね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_SmallCentrifuge_reaction_080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">溶液Bのカセットテープを探そう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_SmallCentrifuge_reaction_090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次は溶液Bの作成かな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_SmallCentrifuge_reaction_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この機械に試験管セットを
 使えばいいんだよね...？</t>
   </si>
   <si>
-    <t>TXT_Pipette_reaction_010</t>
-  </si>
-  <si>
-    <t>ピペットだ
+    <t xml:space="preserve">TXT_Pipette_reaction_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ピペットだ
 理科の授業で使った事があるな</t>
   </si>
   <si>
-    <t>TXT_Pipette_reaction_020</t>
-  </si>
-  <si>
-    <t>試薬瓶があれば抵抗薬を作れる！
+    <t xml:space="preserve">TXT_Pipette_reaction_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">試薬瓶があれば抵抗薬を作れる！
 探してこなきゃ！</t>
   </si>
   <si>
-    <t>TXT_Pipette_reaction_040</t>
-  </si>
-  <si>
-    <t>必要なものは揃ったね
+    <t xml:space="preserve">TXT_Pipette_reaction_040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">必要なものは揃ったね
 手順が確認出来たら始めよう</t>
   </si>
   <si>
-    <t>TXT_Pipette_reaction_050</t>
+    <t xml:space="preserve">TXT_Pipette_reaction_050</t>
   </si>
   <si>
     <r>
@@ -1770,12 +1765,12 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>このピペット先っぽがないよね...
+      <t xml:space="preserve">このピペット先っぽがないよね...
 使い方が知りたいな...</t>
     </r>
   </si>
   <si>
-    <t>TXT_Pipette_reaction_060</t>
+    <t xml:space="preserve">TXT_Pipette_reaction_060</t>
   </si>
   <si>
     <r>
@@ -1797,35 +1792,35 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>手順が確認出来たら始めよう</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_correct</t>
-  </si>
-  <si>
-    <t>手順は大丈夫かな？</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_correct_yes</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_correct_no</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_failed</t>
-  </si>
-  <si>
-    <t>よし、始めるぞ！</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_failed_yes</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_failed_no</t>
-  </si>
-  <si>
-    <t>大丈夫</t>
+      <t xml:space="preserve">手順が確認出来たら始めよう</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">手順は大丈夫かな？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よし、始めるぞ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大丈夫</t>
   </si>
   <si>
     <r>
@@ -1836,7 +1831,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>TXT_Pipette_reaction_070_</t>
+      <t xml:space="preserve">TXT_Pipette_reaction_070_</t>
     </r>
     <r>
       <rPr>
@@ -1846,7 +1841,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>correct</t>
+      <t xml:space="preserve">correct</t>
     </r>
     <r>
       <rPr>
@@ -1856,29 +1851,29 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>_1</t>
-    </r>
-  </si>
-  <si>
-    <t>不安だな</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_dummy</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_failed_1</t>
-  </si>
-  <si>
-    <t>溶液Aの液量はそれぞれ...</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_correct_1_A</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_correct_1_B</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_correct_1_C</t>
+      <t xml:space="preserve">_1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">不安だな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_dummy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">溶液Aの液量はそれぞれ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1_C</t>
   </si>
   <si>
     <r>
@@ -1889,7 +1884,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>TXT_Pipette_reaction_070_</t>
+      <t xml:space="preserve">TXT_Pipette_reaction_070_</t>
     </r>
     <r>
       <rPr>
@@ -1899,7 +1894,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>correct</t>
+      <t xml:space="preserve">correct</t>
     </r>
     <r>
       <rPr>
@@ -1909,137 +1904,137 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>_1_A</t>
-    </r>
-  </si>
-  <si>
-    <t>1(ml)</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_correct_1A_2</t>
-  </si>
-  <si>
-    <t>3(ml)</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_correct_1B_2</t>
-  </si>
-  <si>
-    <t>5(ml)</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_correct_1C_2</t>
-  </si>
-  <si>
-    <t>溶液Bは...</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_correct_1A_2_A</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_correct_1A_2_B</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_correct_1A_2_C</t>
-  </si>
-  <si>
-    <t>2(ml)</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_allfailed</t>
-  </si>
-  <si>
-    <t>Flag_PurpleCloudySolution_Obtained</t>
-  </si>
-  <si>
-    <t>4(ml)</t>
-  </si>
-  <si>
-    <t>6(ml)</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_correct_1B_2_A</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_correct_1B_2_B</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_correct_1B_2_C</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_correct_1C_2_A</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_correct_1C_2_B</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_correct_1C_2_C</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_allcorrect</t>
-  </si>
-  <si>
-    <t>Flag_PurpleSolution_Obtained</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_failed_1_A</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_failed_1_B</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_failed_1_C</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_failed_1A_2</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_failed_1B_2</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_failed_1C_2</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_failed_1A_2_A</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_failed_1A_2_B</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_failed_1A_2_C</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_failed_1B_2_A</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_failed_1B_2_B</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_failed_1B_2_C</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_failed_1C_2_A</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_failed_1C_2_B</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_070_failed_1C_2_C</t>
-  </si>
-  <si>
-    <t>やった！　抵抗薬ができた！</t>
-  </si>
-  <si>
-    <t>濁った溶液ができちゃった...</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_080</t>
-  </si>
-  <si>
-    <t>指示通りできてるはずだよね</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_090</t>
+      <t xml:space="preserve">_1_A</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1(ml)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1A_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3(ml)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1B_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5(ml)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1C_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">溶液Bは...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1A_2_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1A_2_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1A_2_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2(ml)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_allfailed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag_PurpleCloudySolution_Obtained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4(ml)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6(ml)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1B_2_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1B_2_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1B_2_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1C_2_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1C_2_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1C_2_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_allcorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag_PurpleSolution_Obtained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1A_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1B_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1C_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1A_2_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1A_2_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1A_2_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1B_2_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1B_2_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1B_2_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1C_2_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1C_2_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1C_2_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">やった！　抵抗薬ができた！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">濁った溶液ができちゃった...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指示通りできてるはずだよね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_090</t>
   </si>
   <si>
     <r>
@@ -2061,23 +2056,23 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>大丈夫だよね...</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_100</t>
-  </si>
-  <si>
-    <t>必要なものを揃えないと</t>
-  </si>
-  <si>
-    <t>TXT_Pipette_reaction_110</t>
-  </si>
-  <si>
-    <t>試薬瓶を準備しないと</t>
-  </si>
-  <si>
-    <t>TXT_TipHolder_reaction_010</t>
+      <t xml:space="preserve">大丈夫だよね...</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">必要なものを揃えないと</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">試薬瓶を準備しないと</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_TipHolder_reaction_010</t>
   </si>
   <si>
     <r>
@@ -2099,24 +2094,24 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>なんだろうこれ？</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_TipHolder_reaction_020</t>
-  </si>
-  <si>
-    <t>ピペットに使うチップって
+      <t xml:space="preserve">なんだろうこれ？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_TipHolder_reaction_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ピペットに使うチップって
 これかもしれない！　持っていこう！</t>
   </si>
   <si>
-    <t>TXT_TipHolder_reaction_030</t>
-  </si>
-  <si>
-    <t>チップはもういらないや</t>
-  </si>
-  <si>
-    <t>TXT_PipetteManual_reaction_10</t>
+    <t xml:space="preserve">TXT_TipHolder_reaction_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チップはもういらないや</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_PipetteManual_reaction_10</t>
   </si>
   <si>
     <r>
@@ -2138,14 +2133,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>今は読む必要はないかな</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_PipetteManual_content_10</t>
-  </si>
-  <si>
-    <t>『ピペットを使う際の注意』
+      <t xml:space="preserve">今は読む必要はないかな</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_PipetteManual_content_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">『ピペットを使う際の注意』
 溶液に直接ピペットを
 触れさせるのは厳禁です
 ピペットに取り付ける
@@ -2154,7 +2149,7 @@
 使用してください</t>
   </si>
   <si>
-    <t>TXT_PipetteManual_content_20</t>
+    <t xml:space="preserve">TXT_PipetteManual_content_20</t>
   </si>
   <si>
     <r>
@@ -2197,10 +2192,10 @@
     </r>
   </si>
   <si>
-    <t>TXT_CentrifugeManual_reaction_10</t>
-  </si>
-  <si>
-    <t>『遠心分離機の設定』
+    <t xml:space="preserve">TXT_CentrifugeManual_reaction_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">『遠心分離機の設定』
 遠心分離機を使うには
 遠心力と分離時間を設定する
 必要があります
@@ -2208,21 +2203,21 @@
 時間の単位は『秒』で設定します</t>
   </si>
   <si>
-    <t>TXT_CentrifugeManual_reaction_20</t>
-  </si>
-  <si>
-    <t>分離したい溶液の本数と
+    <t xml:space="preserve">TXT_CentrifugeManual_reaction_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分離したい溶液の本数と
 溶液の性質に合わせて
 遠心力と時間を設定してください</t>
   </si>
   <si>
-    <t>TXT_ReagentBottle_reaction_010</t>
-  </si>
-  <si>
-    <t>不思議な形をした瓶がいっぱい...</t>
-  </si>
-  <si>
-    <t>TXT_ReagentBottle_reaction_020</t>
+    <t xml:space="preserve">TXT_ReagentBottle_reaction_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不思議な形をした瓶がいっぱい...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_ReagentBottle_reaction_020</t>
   </si>
   <si>
     <r>
@@ -2244,74 +2239,74 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>これのことだよね　持っていこう</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_ReagentBottle_reaction_020_add</t>
-  </si>
-  <si>
-    <t>抵抗薬作りを始めよう！</t>
-  </si>
-  <si>
-    <t>TXT_ReagentBottle_reaction_030</t>
-  </si>
-  <si>
-    <t>試薬瓶はもう持ってる</t>
-  </si>
-  <si>
-    <t>TXT_ReagentBottle_reaction_040</t>
-  </si>
-  <si>
-    <t>抵抗薬は上手く作れているはず</t>
-  </si>
-  <si>
-    <t>TXT_ReagentBottle_reaction_050</t>
-  </si>
-  <si>
-    <t>この抵抗薬、やっぱり間違えてるかも... うん、捨ててやり直そう...！</t>
-  </si>
-  <si>
-    <t>TXT_ReagentBottle_reaction_060</t>
-  </si>
-  <si>
-    <t>必要な溶液を揃えないと</t>
-  </si>
-  <si>
-    <t>TXT_ReagentBottle_reaction_070</t>
-  </si>
-  <si>
-    <t>今度こそ、抵抗薬を完成させるぞ！</t>
-  </si>
-  <si>
-    <t>TXT_ReagentBottle_reaction_080</t>
-  </si>
-  <si>
-    <t>TXT_ReagentBottle_reaction_090</t>
-  </si>
-  <si>
-    <t>冷蔵庫の中の試薬瓶って
+      <t xml:space="preserve">これのことだよね　持っていこう</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_ReagentBottle_reaction_020_add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">抵抗薬作りを始めよう！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_ReagentBottle_reaction_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">試薬瓶はもう持ってる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_ReagentBottle_reaction_040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">抵抗薬は上手く作れているはず</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_ReagentBottle_reaction_050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この抵抗薬、やっぱり間違えてるかも... うん、捨ててやり直そう...！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_ReagentBottle_reaction_060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">必要な溶液を揃えないと</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_ReagentBottle_reaction_070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今度こそ、抵抗薬を完成させるぞ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_ReagentBottle_reaction_080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_ReagentBottle_reaction_090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冷蔵庫の中の試薬瓶って
 これのことだよね</t>
   </si>
   <si>
-    <t>TXT_FakeReagentBottle_reaction_010</t>
-  </si>
-  <si>
-    <t>TXT_FakeReagentBottle_reaction_020</t>
-  </si>
-  <si>
-    <t>作業机の試薬瓶、これかな
+    <t xml:space="preserve">TXT_FakeReagentBottle_reaction_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_FakeReagentBottle_reaction_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作業机の試薬瓶、これかな
 最初から作ってあったなんて...
 持っていこう</t>
   </si>
   <si>
-    <t>TXT_FakeReagentBottle_reaction_030</t>
-  </si>
-  <si>
-    <t>抵抗薬は一つあれば十分だね</t>
-  </si>
-  <si>
-    <t>TXT_FakeReagentBottle_reaction_040</t>
+    <t xml:space="preserve">TXT_FakeReagentBottle_reaction_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">抵抗薬は一つあれば十分だね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_FakeReagentBottle_reaction_040</t>
   </si>
   <si>
     <r>
@@ -2333,179 +2328,197 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>無視しておこう！</t>
-    </r>
-  </si>
-  <si>
-    <t>TXT_Door_reaction_010</t>
-  </si>
-  <si>
-    <t>あれ、鍵が掛かってる
+      <t xml:space="preserve">無視しておこう！</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Door_reaction_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あれ、鍵が掛かってる
 閉めた覚えはないんだけどな...</t>
   </si>
   <si>
-    <t>TXT_Door_reaction_020</t>
-  </si>
-  <si>
-    <t>もう実験には用はないよね...</t>
-  </si>
-  <si>
-    <t>TXT_Door_reaction_020_yes</t>
-  </si>
-  <si>
-    <t>TXT_Door_reaction_020_no</t>
-  </si>
-  <si>
-    <t>外に出よう</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>いや...</t>
-  </si>
-  <si>
-    <t>TXT_Door_reaction_020_dummy</t>
-  </si>
-  <si>
-    <t>　</t>
-  </si>
-  <si>
-    <t>TXT_Door_reaction_030</t>
-  </si>
-  <si>
-    <t>TXT_Door_reaction_030_yes</t>
-  </si>
-  <si>
-    <t>TXT_Door_reaction_030_no</t>
-  </si>
-  <si>
-    <t>GameOver</t>
-  </si>
-  <si>
-    <t>TXT_Door_reaction_030_dummy</t>
-  </si>
-  <si>
-    <t>TXT_Door_reaction_040</t>
-  </si>
-  <si>
-    <t>鍵は開いてるけど
+    <t xml:space="preserve">TXT_Door_reaction_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もう実験には用はないよね...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Door_reaction_020_yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Door_reaction_020_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外に出よう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いや...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Door_reaction_020_dummy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Door_reaction_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Door_reaction_030_yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Door_reaction_030_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GameOver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Door_reaction_030_dummy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Door_reaction_040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鍵は開いてるけど
 抵抗薬を作るまでは...</t>
   </si>
   <si>
-    <t>TXT_ItemName_CassetteTape_2</t>
-  </si>
-  <si>
-    <t>『溶液Aの作成方法』のカセットテープだ</t>
-  </si>
-  <si>
-    <t>TXT_ItemName_CassetteTape_3</t>
-  </si>
-  <si>
-    <t>『溶液Bの作成方法』のカセットテープだ</t>
-  </si>
-  <si>
-    <t>TXT_ItemName_CassetteTape_4</t>
-  </si>
-  <si>
-    <t>『低杭楽の作成方法』と書かれてる
+    <t xml:space="preserve">TXT_ItemName_CassetteTape_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">『溶液Aの作成方法』のカセットテープだ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_ItemName_CassetteTape_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">『溶液Bの作成方法』のカセットテープだ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_ItemName_CassetteTape_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">『低杭楽の作成方法』と書かれてる
 漢字も間違っているし、何か変だな...</t>
   </si>
   <si>
-    <t>TXT_ItemName_CassetteTape_5</t>
-  </si>
-  <si>
-    <t>『抵抗薬の作成方法』のカセットテープだ</t>
-  </si>
-  <si>
-    <t>TXT_DimpleKey_02</t>
-  </si>
-  <si>
-    <t>複雑な形をした鍵だ</t>
-  </si>
-  <si>
-    <t>TXT_PurpleCloudySolution_001</t>
-  </si>
-  <si>
-    <t>濁った紫色の液体だ</t>
-  </si>
-  <si>
-    <t>TXT_PurpleSolution_001</t>
-  </si>
-  <si>
-    <t>透明な紫色の液体だ</t>
-  </si>
-  <si>
-    <t>TXT_TestItem_001</t>
-  </si>
-  <si>
-    <t>TXT_TestItem_002</t>
-  </si>
-  <si>
-    <t>TXT_TestItem_003</t>
-  </si>
-  <si>
-    <t>TXT_BlueCSolution</t>
-  </si>
-  <si>
-    <t>濁った青色の液体だ</t>
-  </si>
-  <si>
-    <t>TXT_BlueSolution</t>
-  </si>
-  <si>
-    <t>透明な青色の液体だ</t>
-  </si>
-  <si>
-    <t>TXT_RedSolution</t>
-  </si>
-  <si>
-    <t>透明な赤色の液体だ</t>
-  </si>
-  <si>
-    <t>TXT_TestTube_ItemUse</t>
-  </si>
-  <si>
-    <t>試験管セットだ
+    <t xml:space="preserve">TXT_ItemName_CassetteTape_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">『抵抗薬の作成方法』のカセットテープだ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_DimpleKey_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">複雑な形をした鍵だ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_PurpleCloudySolution_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">濁った紫色の液体だ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_PurpleSolution_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">透明な紫色の液体だ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_TestItem_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">穴が４つ開いた...ローターかな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_TestItem_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">穴が６つ開いた...ローターかな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_TestItem_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">穴が８つ開いた...ローターかな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_BlueCSolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">濁った青色の液体だ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_BlueSolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">透明な青色の液体だ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_RedSolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">透明な赤色の液体だ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_TestTube_ItemUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">試験管セットだ
 見る角度で色が変わる...不思議だな</t>
   </si>
   <si>
-    <t>TXT_ReagentBottle</t>
-  </si>
-  <si>
-    <t>不思議な形をした試薬瓶だ</t>
-  </si>
-  <si>
-    <t>TXT_FakeReagentBottle</t>
-  </si>
-  <si>
-    <t>抵抗薬だ
+    <t xml:space="preserve">TXT_ReagentBottle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不思議な形をした試薬瓶だ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_FakeReagentBottle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">抵抗薬だ
 深緑の...少しだけ嫌な色をしてる...</t>
-  </si>
-  <si>
-    <t>穴が４つ開いた...ローターかなtest</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>穴が６つ開いた...ローターかなtes</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>穴が８つ開いた...ローターかなtes</t>
-    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2521,12 +2534,6 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2537,7 +2544,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -2545,87 +2552,113 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -2657,7 +2690,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -2681,7 +2714,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -2741,73 +2774,74 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:I272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D265" sqref="D265"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A250" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B267" activeCellId="0" sqref="B266:B267"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="18.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38.125" customWidth="1"/>
-    <col min="2" max="2" width="37.75" customWidth="1"/>
-    <col min="3" max="3" width="3.375" customWidth="1"/>
-    <col min="4" max="4" width="39.75" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="25.875" customWidth="1"/>
-    <col min="7" max="9" width="22.5" customWidth="1"/>
-    <col min="10" max="26" width="8.625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="10" style="0" width="8.62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="1"/>
@@ -2818,1307 +2852,1307 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="C3" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="n">
         <v>-1</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="150">
+      <c r="C6" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="93.75">
+    <row r="8" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75">
+    <row r="9" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="75">
+    <row r="10" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="131.25">
+    <row r="11" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="112.5">
+    <row r="12" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="37.5">
+    <row r="13" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="75">
+    <row r="14" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="93.75">
+    <row r="15" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="131.25">
+    <row r="16" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="37.5">
+    <row r="17" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="37.5">
+    <row r="19" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="75">
+      <c r="C19" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="131.25">
+    <row r="21" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="131.25">
+    <row r="22" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="56.25">
+    <row r="23" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="37.5">
+    <row r="24" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="112.5">
+    <row r="25" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="168.75">
+    <row r="26" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="37.5">
+    <row r="27" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="37.5">
+    <row r="28" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="37.5">
+    <row r="29" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="37.5">
+    <row r="30" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="37.5">
+    <row r="32" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="37.5">
+    <row r="33" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="37.5">
+    <row r="34" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="56.25">
+    <row r="35" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="37.5">
+    <row r="36" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="37.5">
+      <c r="C36" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="56.25">
+    <row r="38" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" ht="37.5">
+    <row r="40" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="37.5">
+    <row r="41" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" ht="37.5">
+    <row r="44" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="37.5">
+    <row r="46" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="37.5">
+    <row r="47" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="37.5">
+    <row r="48" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="37.5">
+    <row r="49" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="37.5">
+    <row r="50" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="37.5">
+    <row r="51" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="37.5">
+    <row r="52" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="37.5">
+    <row r="53" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="37.5">
+    <row r="54" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="37.5">
+    <row r="55" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" ht="37.5">
+    <row r="57" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="37.5">
+    <row r="58" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="37.5">
+    <row r="60" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="37.5">
+    <row r="62" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="37.5">
+    <row r="63" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C71" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="C71" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" ht="37.5">
+    <row r="73" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="37.5">
+    <row r="74" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="37.5">
+    <row r="76" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="37.5">
+    <row r="77" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="37.5">
+    <row r="78" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="37.5">
+    <row r="79" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="37.5">
+    <row r="80" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" ht="37.5">
+    <row r="81" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" ht="37.5">
+    <row r="82" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="37.5">
+    <row r="83" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="37.5">
+    <row r="84" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C85" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="37.5">
+      <c r="C85" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C88" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="C88" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C89" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="C89" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" ht="37.5">
+    <row r="91" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" ht="37.5">
+    <row r="92" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" ht="37.5">
+    <row r="93" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" ht="37.5">
+    <row r="95" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" ht="37.5">
+    <row r="96" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:7" ht="37.5">
+    <row r="97" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:7" ht="37.5">
+    <row r="98" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:7" ht="37.5">
+    <row r="100" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C101" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="C101" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C102" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="37.5">
+      <c r="C102" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:7" ht="37.5">
+    <row r="104" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:7" ht="37.5">
+    <row r="105" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -4131,67 +4165,67 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C109" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="37.5">
+      <c r="C109" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E110" s="1" t="s">
@@ -4204,14 +4238,14 @@
         <v>228</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="37.5">
+    <row r="111" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -4224,14 +4258,14 @@
         <v>231</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="37.5">
+    <row r="112" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -4244,25 +4278,25 @@
         <v>234</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C113" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="37.5">
+      <c r="C113" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -4272,14 +4306,14 @@
         <v>238</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="37.5">
+    <row r="115" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -4289,14 +4323,14 @@
         <v>238</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="37.5">
+    <row r="116" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -4306,14 +4340,14 @@
         <v>238</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="37.5">
+    <row r="117" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -4323,14 +4357,14 @@
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="37.5">
+    <row r="118" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -4340,14 +4374,14 @@
         <v>238</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="37.5">
+    <row r="119" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -4357,14 +4391,14 @@
         <v>238</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="37.5">
+    <row r="120" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -4374,14 +4408,14 @@
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="37.5">
+    <row r="121" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -4391,14 +4425,14 @@
         <v>238</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="37.5">
+    <row r="122" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D122" s="1" t="s">
@@ -4408,14 +4442,14 @@
         <v>238</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="37.5">
+    <row r="123" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E123" s="1" t="s">
@@ -4428,67 +4462,67 @@
         <v>244</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C127" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="37.5">
+      <c r="C127" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E128" s="1" t="s">
@@ -4501,14 +4535,14 @@
         <v>251</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="37.5">
+    <row r="129" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E129" s="1" t="s">
@@ -4521,14 +4555,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="37.5">
+    <row r="130" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -4541,25 +4575,25 @@
         <v>257</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C131" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="37.5">
+      <c r="C131" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D132" s="1" t="s">
@@ -4569,14 +4603,14 @@
         <v>238</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="37.5">
+    <row r="133" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -4586,14 +4620,14 @@
         <v>238</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="37.5">
+    <row r="134" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -4603,14 +4637,14 @@
         <v>238</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="37.5">
+    <row r="135" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -4620,14 +4654,14 @@
         <v>238</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="37.5">
+    <row r="136" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D136" s="2" t="s">
@@ -4637,14 +4671,14 @@
         <v>260</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="37.5">
+    <row r="137" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D137" s="1" t="s">
@@ -4654,14 +4688,14 @@
         <v>238</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="37.5">
+    <row r="138" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D138" s="1" t="s">
@@ -4671,14 +4705,14 @@
         <v>238</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="37.5">
+    <row r="139" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D139" s="1" t="s">
@@ -4688,14 +4722,14 @@
         <v>238</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="37.5">
+    <row r="140" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D140" s="1" t="s">
@@ -4705,479 +4739,479 @@
         <v>238</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E141" s="2"/>
       <c r="H141" s="3"/>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:8" ht="37.5">
+    <row r="143" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C143" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="C143" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" ht="37.5">
+    <row r="146" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C150" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="37.5">
+      <c r="C150" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C155" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="37.5">
+      <c r="C155" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C158" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C159" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C160" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="37.5">
+      <c r="C160" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D161" s="1"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C162" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C163" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D163" s="1"/>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C164" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D164" s="1"/>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C165" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="37.5">
+      <c r="C165" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C166" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="1:5" ht="37.5">
+    <row r="167" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C167" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D167" s="1"/>
     </row>
-    <row r="168" spans="1:5" ht="37.5">
+    <row r="168" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C168" s="1">
+      <c r="C168" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>307</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C169" s="1">
+      <c r="C169" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C170" s="1">
+      <c r="C170" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D170" s="1"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
         <v>311</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C171" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C172" s="1">
+      <c r="C172" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C173" s="1">
+      <c r="C173" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="1:5" ht="37.5">
+    <row r="174" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C174" s="1">
+      <c r="C174" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="1:5" ht="37.5">
+    <row r="175" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
         <v>319</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="1:5" ht="37.5">
+    <row r="176" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="1:7" ht="37.5">
+    <row r="177" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
         <v>323</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="1:7" ht="56.25">
+    <row r="178" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>325</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="1:7" ht="37.5">
+    <row r="179" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
         <v>327</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="1:7" ht="37.5">
+    <row r="180" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D180" s="3"/>
@@ -5188,14 +5222,14 @@
         <v>332</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="37.5">
+    <row r="181" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
         <v>333</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D181" s="3"/>
@@ -5207,14 +5241,14 @@
       </c>
       <c r="G181" s="2"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
         <v>331</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D182" s="1" t="s">
@@ -5223,14 +5257,14 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
         <v>332</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D183" s="3" t="s">
@@ -5239,14 +5273,14 @@
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D184" s="1" t="s">
@@ -5255,14 +5289,14 @@
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
         <v>336</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D185" s="3" t="s">
@@ -5271,28 +5305,28 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
         <v>340</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="1:7" ht="37.5">
+    <row r="187" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E187" s="1" t="s">
@@ -5305,14 +5339,14 @@
         <v>345</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D188" s="1" t="s">
@@ -5320,14 +5354,14 @@
       </c>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
         <v>344</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -5335,14 +5369,14 @@
       </c>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
         <v>345</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D190" s="1" t="s">
@@ -5350,14 +5384,14 @@
       </c>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="1:7" ht="37.5">
+    <row r="191" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
         <v>348</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E191" s="1" t="s">
@@ -5370,14 +5404,14 @@
         <v>356</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
         <v>354</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -5387,14 +5421,14 @@
         <v>359</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D193" s="1" t="s">
@@ -5404,14 +5438,14 @@
         <v>359</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
         <v>356</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D194" s="1" t="s">
@@ -5421,14 +5455,14 @@
         <v>359</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="37.5">
+    <row r="195" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
         <v>350</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E195" s="1" t="s">
@@ -5441,14 +5475,14 @@
         <v>364</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -5458,14 +5492,14 @@
         <v>359</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
         <v>363</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D197" s="1" t="s">
@@ -5475,14 +5509,14 @@
         <v>359</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D198" s="1" t="s">
@@ -5492,14 +5526,14 @@
         <v>359</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="37.5">
+    <row r="199" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
         <v>352</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E199" s="1" t="s">
@@ -5512,14 +5546,14 @@
         <v>367</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
         <v>365</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D200" s="2" t="s">
@@ -5529,14 +5563,14 @@
         <v>369</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
         <v>366</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D201" s="1" t="s">
@@ -5546,14 +5580,14 @@
         <v>359</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
         <v>367</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D202" s="1" t="s">
@@ -5563,14 +5597,14 @@
         <v>359</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="37.5">
+    <row r="203" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E203" s="1" t="s">
@@ -5583,14 +5617,14 @@
         <v>372</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D204" s="1" t="s">
@@ -5598,14 +5632,14 @@
       </c>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
         <v>371</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D205" s="1" t="s">
@@ -5613,14 +5647,14 @@
       </c>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D206" s="1" t="s">
@@ -5628,14 +5662,14 @@
       </c>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="1:7" ht="37.5">
+    <row r="207" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
         <v>373</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E207" s="1" t="s">
@@ -5648,14 +5682,14 @@
         <v>378</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
         <v>376</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D208" s="1" t="s">
@@ -5665,14 +5699,14 @@
         <v>359</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
         <v>377</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D209" s="1" t="s">
@@ -5682,14 +5716,14 @@
         <v>359</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
         <v>378</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D210" s="1" t="s">
@@ -5699,14 +5733,14 @@
         <v>359</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="37.5">
+    <row r="211" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
         <v>374</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E211" s="1" t="s">
@@ -5719,14 +5753,14 @@
         <v>381</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D212" s="1" t="s">
@@ -5736,14 +5770,14 @@
         <v>359</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
         <v>380</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D213" s="1" t="s">
@@ -5753,14 +5787,14 @@
         <v>359</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
         <v>381</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D214" s="1" t="s">
@@ -5770,14 +5804,14 @@
         <v>359</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="37.5">
+    <row r="215" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E215" s="1" t="s">
@@ -5790,14 +5824,14 @@
         <v>384</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
         <v>382</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D216" s="1" t="s">
@@ -5807,14 +5841,14 @@
         <v>359</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
         <v>383</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D217" s="1" t="s">
@@ -5824,14 +5858,14 @@
         <v>359</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
         <v>384</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D218" s="1" t="s">
@@ -5841,642 +5875,646 @@
         <v>359</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
         <v>358</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C220">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
+      <c r="C220" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
         <v>387</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C221">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" ht="37.5">
+      <c r="C221" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
         <v>389</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D222" s="1"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D223" s="1"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
         <v>393</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D224" s="1"/>
     </row>
-    <row r="225" spans="1:4" ht="37.5">
+    <row r="225" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
         <v>395</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C225">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="37.5">
+      <c r="C225" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
         <v>397</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C226">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
+      <c r="C226" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
         <v>399</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C227">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="37.5">
+      <c r="C227" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C228">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="168.75">
+      <c r="C228" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
         <v>403</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="187.5">
+    <row r="230" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
         <v>405</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="150">
+    <row r="231" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="2" t="s">
         <v>407</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="75">
+    <row r="232" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2" t="s">
         <v>409</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
         <v>411</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C233">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="37.5">
+      <c r="C233" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D234" s="1"/>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="2" t="s">
         <v>415</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D235" s="1"/>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
         <v>417</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C236">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+      <c r="C236" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
         <v>419</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C237">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="37.5">
+      <c r="C237" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
         <v>421</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C238">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+      <c r="C238" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
         <v>423</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C239">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
+      <c r="C239" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
         <v>425</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C240">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
+      <c r="C240" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
         <v>427</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C241">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" ht="37.5">
+      <c r="C241" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
         <v>428</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C242">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
+      <c r="C242" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
         <v>430</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C243">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" ht="56.25">
+      <c r="C243" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
         <v>431</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
         <v>433</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C245">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" ht="37.5">
+      <c r="C245" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
         <v>435</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="1:6" ht="37.5">
-      <c r="A247" t="s">
+    <row r="247" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
         <v>437</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C247">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248" t="s">
+      <c r="C247" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="C248">
-        <v>0</v>
-      </c>
-      <c r="E248" t="s">
+      <c r="C248" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E248" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="F248" t="s">
+      <c r="F248" s="0" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
-      <c r="A249" t="s">
+    <row r="249" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E249" s="3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
-      <c r="A250" t="s">
+    <row r="250" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="C250">
-        <v>0</v>
-      </c>
-      <c r="D250" t="s">
+      <c r="C250" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D250" s="0" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
-      <c r="A251" t="s">
+    <row r="251" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="C251">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
-      <c r="A252" t="s">
+      <c r="C251" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="C252">
-        <v>0</v>
-      </c>
-      <c r="E252" t="s">
+      <c r="C252" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E252" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="F252" t="s">
+      <c r="F252" s="0" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
-      <c r="A253" t="s">
+    <row r="253" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
-      <c r="A254" t="s">
+    <row r="254" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="C254">
-        <v>0</v>
-      </c>
-      <c r="D254" t="s">
+      <c r="C254" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D254" s="0" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
-      <c r="A255" t="s">
+    <row r="255" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="C255">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" ht="37.5">
-      <c r="A256" t="s">
+      <c r="C255" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
         <v>453</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C256">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257" t="s">
+      <c r="C256" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
         <v>455</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C257">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258" t="s">
+      <c r="C257" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
         <v>457</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C258">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="37.5">
-      <c r="A259" t="s">
+      <c r="C258" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
         <v>459</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C259">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" t="s">
+      <c r="C259" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
         <v>461</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C260">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261" t="s">
+      <c r="C260" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="C261">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" t="s">
+      <c r="C261" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="C262">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" t="s">
+      <c r="C262" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="C263">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" t="s">
+      <c r="C263" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="C264" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="C265" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C266" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="C267" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="C268" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B269" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="C269" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C270" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B271" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="C264">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265" t="s">
-        <v>470</v>
-      </c>
-      <c r="B265" t="s">
+      <c r="C271" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="C265">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" t="s">
-        <v>471</v>
-      </c>
-      <c r="B266" t="s">
+      <c r="B272" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C266">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267" t="s">
-        <v>472</v>
-      </c>
-      <c r="B267" t="s">
-        <v>473</v>
-      </c>
-      <c r="C267">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" t="s">
-        <v>474</v>
-      </c>
-      <c r="B268" t="s">
-        <v>475</v>
-      </c>
-      <c r="C268">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" t="s">
-        <v>476</v>
-      </c>
-      <c r="B269" t="s">
-        <v>477</v>
-      </c>
-      <c r="C269">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="37.5">
-      <c r="A270" t="s">
-        <v>478</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C270">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271" t="s">
-        <v>480</v>
-      </c>
-      <c r="B271" t="s">
-        <v>481</v>
-      </c>
-      <c r="C271">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="37.5">
-      <c r="A272" t="s">
-        <v>482</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C272">
+      <c r="C272" s="0" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>